--- a/Practicas/Sesion 1/P1_sesion1_plantillaMedidas.xlsx
+++ b/Practicas/Sesion 1/P1_sesion1_plantillaMedidas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="DatosAlumnos"/>
@@ -147,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="24">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -173,12 +173,6 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -192,26 +186,17 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="166" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -221,26 +206,17 @@
     <xf xfId="0" numFmtId="166" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="166" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="167" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="168" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="167" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="166" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="166" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="167" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,8 +526,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="25.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="25.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="19.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -578,46 +554,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="29" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="29" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="29" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="29" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="29" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="29" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="30" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="31" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="18" t="s">
         <v>14</v>
       </c>
       <c r="K1" s="7" t="s">
@@ -625,25 +601,25 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="24">
+      <c r="A2" s="19">
         <v>4.7</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="19">
         <v>10</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="19">
         <v>2.2</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="19">
         <v>1.5</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="19">
         <v>4.09</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="19">
         <v>12</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="19">
         <v>3.295</v>
       </c>
       <c r="H2" s="7" t="s">
@@ -652,31 +628,31 @@
       <c r="I2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="26">
+      <c r="J2" s="20">
         <v>0.05</v>
       </c>
       <c r="K2" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="24">
+      <c r="A3" s="19">
         <v>4.58</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="19">
         <v>9.92</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="19">
         <v>2.14</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="19">
         <v>1.47</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="19">
         <v>4</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="19">
         <v>11.96</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="19">
         <v>3.27</v>
       </c>
       <c r="H3" s="7" t="s">
@@ -685,71 +661,71 @@
       <c r="I3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="20">
         <v>0.05</v>
       </c>
       <c r="K3" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="27"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="3"/>
       <c r="I4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="20">
         <v>0.05</v>
       </c>
       <c r="K4" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="3"/>
       <c r="I5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="20">
         <v>0.05</v>
       </c>
       <c r="K5" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
       <c r="H6" s="3"/>
       <c r="I6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="28"/>
+      <c r="J6" s="20"/>
       <c r="K6" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="24"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="28"/>
+      <c r="J7" s="20"/>
       <c r="K7" s="3"/>
     </row>
   </sheetData>
@@ -764,20 +740,20 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="19" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="16" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -785,12 +761,12 @@
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="F1" s="15"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="5">
         <v>1.636</v>
       </c>
@@ -808,9 +784,9 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="10"/>
-      <c r="B3" s="18"/>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="5"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5">
@@ -832,16 +808,16 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -940,7 +916,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="5">
-        <v>1293</v>
+        <v>1.293</v>
       </c>
       <c r="B6" s="8">
         <v>0.51</v>
@@ -960,7 +936,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="5">
-        <v>1466</v>
+        <v>1.47</v>
       </c>
       <c r="B7" s="8">
         <v>0.47</v>
@@ -980,7 +956,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="5">
-        <v>1802</v>
+        <v>1.8</v>
       </c>
       <c r="B8" s="8">
         <v>0.38</v>
@@ -1079,44 +1055,44 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="9"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="8"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="9"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="8"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="9"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="8"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="11"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="8"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="11"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="8"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
